--- a/test-data/excel/integrated_test_output.xlsx
+++ b/test-data/excel/integrated_test_output.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-12-24 15:53:38</t>
+          <t>2025-12-26 13:11:49</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-12-24 15:53:38</t>
+          <t>2025-12-26 13:11:49</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-12-24 15:53:38</t>
+          <t>2025-12-26 13:11:49</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-12-24 15:53:38</t>
+          <t>2025-12-26 13:11:49</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-12-24 15:53:38</t>
+          <t>2025-12-26 13:11:49</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test Date: 2025-12-24 15:53:38</t>
+          <t>Test Date: 2025-12-26 13:11:49</t>
         </is>
       </c>
     </row>
